--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_21.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>70211.94115255188</v>
+        <v>62154.10356223468</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728813</v>
+        <v>9102620.618728811</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8191592.578713059</v>
+        <v>8191592.578713061</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>104.5113366705979</v>
       </c>
       <c r="I2" t="n">
-        <v>19.65541699476313</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755673</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>84.45262105857543</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -838,7 +838,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>394.0215017740269</v>
       </c>
       <c r="H5" t="n">
-        <v>279.6384992078849</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646389</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1057,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>17.13267830033018</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>81.25819606329431</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -1075,7 +1075,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>344.3564489008012</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>122.5915982230237</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,22 +1294,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>81.25819606329402</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>163.8950372953901</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1531,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>73.31370764131968</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>18.37682225755638</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,13 +1543,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1607,10 +1607,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>221.002178698296</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>339.0399185806816</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1768,10 +1768,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>60.38235645081264</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>50.8642966346362</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>149.5761467139237</v>
+        <v>95.09774413911198</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -1941,7 +1941,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2053,19 +2053,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>155.2114886365811</v>
       </c>
       <c r="U19" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,22 +2081,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>138.3334617756294</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>163.9525168309268</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>137.6226750441172</v>
+        <v>60.44533761123568</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2321,22 +2321,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>265.2101786338241</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>228.0859353148503</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2415,7 +2415,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>128.7835007017899</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2533,16 +2533,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2558,16 +2558,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>95.09774413911198</v>
+        <v>354.3958624239608</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2600,10 +2600,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2652,7 +2652,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>162.3364906735232</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,10 +2792,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>323.9918595228954</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>334.5817096732201</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2889,7 +2889,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -3001,13 +3001,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>129.024624796403</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>156.1271626621471</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>22.98569063694824</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3229,19 +3229,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>83.59830597394826</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3266,10 +3266,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>275.4805812731078</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>52.10844059186253</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3466,19 +3466,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>54.47555601903409</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>269.5134569480836</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>311.4936872159398</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3566,10 +3566,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.82953530753669</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3724,10 +3724,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>82.92375604299515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,10 +3740,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,16 +3785,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>47.93792996527441</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>339.0399185806816</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3837,7 +3837,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3952,19 +3952,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>128.7835007017899</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>221.0021786982965</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>225.4603876057575</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4074,7 +4074,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4183,19 +4183,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>156.127162662147</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1229.941371236149</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="C2" t="n">
-        <v>1229.941371236149</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="D2" t="n">
-        <v>1229.941371236149</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="E2" t="n">
-        <v>1229.941371236149</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="F2" t="n">
-        <v>818.9554664465415</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="G2" t="n">
-        <v>400.9916583447284</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="H2" t="n">
-        <v>73.79693838073126</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533142</v>
@@ -4346,10 +4346,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834949</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.546461473041</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.546461473041</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.546461473041</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1620.080703211961</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1229.941371236149</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4383,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4428,22 +4428,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4471,22 +4471,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>580.2158906240413</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>433.3259431261309</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1534.318342165212</v>
+        <v>1975.94687169884</v>
       </c>
       <c r="C5" t="n">
-        <v>1165.3558252248</v>
+        <v>1606.984354758428</v>
       </c>
       <c r="D5" t="n">
-        <v>1165.3558252248</v>
+        <v>1248.718656151678</v>
       </c>
       <c r="E5" t="n">
-        <v>1165.3558252248</v>
+        <v>862.9304035534335</v>
       </c>
       <c r="F5" t="n">
-        <v>754.3699204351926</v>
+        <v>451.9444987638259</v>
       </c>
       <c r="G5" t="n">
-        <v>336.4061123333795</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>2311.057514205145</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X5" t="n">
-        <v>2311.057514205145</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="Y5" t="n">
-        <v>1920.918182229334</v>
+        <v>1975.94687169884</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4689,7 +4689,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>579.9823256406185</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E7" t="n">
-        <v>579.9823256406185</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1577.945354755379</v>
+        <v>1525.74665604171</v>
       </c>
       <c r="C8" t="n">
-        <v>1208.982837814967</v>
+        <v>1525.74665604171</v>
       </c>
       <c r="D8" t="n">
-        <v>850.7171392082163</v>
+        <v>1525.74665604171</v>
       </c>
       <c r="E8" t="n">
-        <v>464.928886609972</v>
+        <v>1139.958403443465</v>
       </c>
       <c r="F8" t="n">
-        <v>53.94298182036446</v>
+        <v>728.9724986538579</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2573.319193823249</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2354.684526795312</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2354.684526795312</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2354.684526795312</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2354.684526795312</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X8" t="n">
-        <v>2354.684526795312</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y8" t="n">
-        <v>1964.5451948195</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2627.754532504894</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1546.944160717209</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C11" t="n">
-        <v>1177.981643776797</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D11" t="n">
-        <v>1177.981643776797</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E11" t="n">
-        <v>792.1933911785532</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F11" t="n">
-        <v>381.2074863889456</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5063,28 +5063,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018222</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018222</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="X11" t="n">
-        <v>2323.683332757143</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="Y11" t="n">
-        <v>1933.544000781331</v>
+        <v>2476.569858826099</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M12" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N12" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018223</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D13" t="n">
-        <v>654.0747340636873</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E13" t="n">
-        <v>506.1616404812942</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="F13" t="n">
-        <v>359.2716929833838</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="G13" t="n">
-        <v>190.2718927217162</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H13" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5203,46 +5203,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1491.915471247702</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C14" t="n">
-        <v>1268.68094731003</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D14" t="n">
-        <v>1268.68094731003</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E14" t="n">
-        <v>882.8926947117852</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F14" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G14" t="n">
         <v>53.94298182036445</v>
@@ -5276,7 +5276,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
         <v>463.9616490733127</v>
@@ -5294,34 +5294,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q14" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X14" t="n">
-        <v>2268.654643287636</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y14" t="n">
-        <v>1878.515311311824</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E15" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
@@ -5358,28 +5358,28 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
         <v>2488.762748073963</v>
@@ -5394,10 +5394,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y15" t="n">
         <v>1156.713312237151</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="D16" t="n">
-        <v>578.0123447940987</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="E16" t="n">
-        <v>517.0200655508536</v>
+        <v>432.0692320582253</v>
       </c>
       <c r="F16" t="n">
-        <v>517.0200655508536</v>
+        <v>432.0692320582253</v>
       </c>
       <c r="G16" t="n">
-        <v>348.0202652891861</v>
+        <v>263.0694317965578</v>
       </c>
       <c r="H16" t="n">
-        <v>190.2718927217162</v>
+        <v>105.3210592290879</v>
       </c>
       <c r="I16" t="n">
         <v>53.94298182036445</v>
@@ -5458,28 +5458,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1370.766673031379</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="C17" t="n">
-        <v>1001.804156090968</v>
+        <v>946.7754666214607</v>
       </c>
       <c r="D17" t="n">
-        <v>1001.804156090968</v>
+        <v>946.7754666214607</v>
       </c>
       <c r="E17" t="n">
-        <v>616.0159034927233</v>
+        <v>560.9872140232164</v>
       </c>
       <c r="F17" t="n">
-        <v>205.0299987031157</v>
+        <v>150.0013092336089</v>
       </c>
       <c r="G17" t="n">
         <v>53.94298182036445</v>
@@ -5516,16 +5516,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5537,28 +5537,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U17" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V17" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W17" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.505845071313</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y17" t="n">
-        <v>1757.366513095501</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5595,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018223</v>
@@ -5677,40 +5677,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="U19" t="n">
-        <v>598.0446400632119</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="V19" t="n">
-        <v>343.360151857325</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X19" t="n">
         <v>53.94298182036445</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1595.875667274027</v>
+        <v>1199.13500546934</v>
       </c>
       <c r="C20" t="n">
-        <v>1595.875667274027</v>
+        <v>830.1724885289282</v>
       </c>
       <c r="D20" t="n">
-        <v>1595.875667274027</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E20" t="n">
-        <v>1210.087414675782</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F20" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
         <v>53.94298182036445</v>
@@ -5750,13 +5750,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5777,25 +5777,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T20" t="n">
-        <v>2478.514423990285</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U20" t="n">
-        <v>2478.514423990285</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V20" t="n">
-        <v>2338.783654519953</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W20" t="n">
-        <v>1986.014999249838</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X20" t="n">
-        <v>1986.014999249838</v>
+        <v>1199.13500546934</v>
       </c>
       <c r="Y20" t="n">
-        <v>1595.875667274027</v>
+        <v>1199.13500546934</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C22" t="n">
-        <v>500.820796875036</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D22" t="n">
-        <v>350.7041574627002</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E22" t="n">
-        <v>350.7041574627002</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="F22" t="n">
-        <v>350.7041574627002</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="G22" t="n">
-        <v>211.6913543878343</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I22" t="n">
         <v>53.94298182036445</v>
@@ -5914,46 +5914,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U22" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V22" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W22" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X22" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y22" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1150.78176403888</v>
+        <v>920.3919303875161</v>
       </c>
       <c r="C23" t="n">
-        <v>1150.78176403888</v>
+        <v>920.3919303875161</v>
       </c>
       <c r="D23" t="n">
-        <v>882.892694711785</v>
+        <v>920.3919303875161</v>
       </c>
       <c r="E23" t="n">
-        <v>882.892694711785</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F23" t="n">
-        <v>471.9067899221774</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036425</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036425</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036425</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6029,10 +6029,10 @@
         <v>1540.921096014692</v>
       </c>
       <c r="X23" t="n">
-        <v>1540.921096014692</v>
+        <v>1310.531262363328</v>
       </c>
       <c r="Y23" t="n">
-        <v>1150.78176403888</v>
+        <v>920.3919303875161</v>
       </c>
     </row>
     <row r="24">
@@ -6075,16 +6075,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2627.754532504894</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022.963088632153</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>2442.464602812336</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>2153.047432775375</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X25" t="n">
-        <v>2153.047432775375</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y25" t="n">
-        <v>2153.047432775375</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1315.737983561872</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="C26" t="n">
-        <v>946.7754666214607</v>
+        <v>770.1842990371763</v>
       </c>
       <c r="D26" t="n">
-        <v>946.7754666214607</v>
+        <v>411.9186004304258</v>
       </c>
       <c r="E26" t="n">
-        <v>560.9872140232164</v>
+        <v>411.9186004304258</v>
       </c>
       <c r="F26" t="n">
-        <v>150.0013092336089</v>
+        <v>411.9186004304258</v>
       </c>
       <c r="G26" t="n">
         <v>53.94298182036445</v>
@@ -6224,19 +6224,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K26" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6251,25 +6251,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V26" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W26" t="n">
-        <v>2465.942913862886</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X26" t="n">
-        <v>2092.477155601806</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y26" t="n">
-        <v>1702.337823625994</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
         <v>221.4284102424006</v>
@@ -6306,40 +6306,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1851.37379586972</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6412,19 +6412,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>564.1527310008552</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U28" t="n">
-        <v>564.1527310008552</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V28" t="n">
-        <v>564.1527310008552</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W28" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X28" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y28" t="n">
         <v>53.94298182036445</v>
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1546.944160717209</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="C29" t="n">
-        <v>1177.981643776797</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D29" t="n">
-        <v>1177.981643776797</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E29" t="n">
-        <v>792.1933911785532</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F29" t="n">
-        <v>381.2074863889456</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G29" t="n">
         <v>53.94298182036445</v>
@@ -6461,13 +6461,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6500,13 +6500,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W29" t="n">
-        <v>2697.149091018222</v>
+        <v>2359.18776811598</v>
       </c>
       <c r="X29" t="n">
-        <v>2323.683332757143</v>
+        <v>1985.7220098549</v>
       </c>
       <c r="Y29" t="n">
-        <v>1933.544000781331</v>
+        <v>1595.582677879088</v>
       </c>
     </row>
     <row r="30">
@@ -6546,19 +6546,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K31" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T31" t="n">
-        <v>500.820796875036</v>
+        <v>2566.821187183472</v>
       </c>
       <c r="U31" t="n">
-        <v>211.6471865296039</v>
+        <v>2277.64757683804</v>
       </c>
       <c r="V31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="32">
@@ -6704,7 +6704,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6753,67 +6753,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632153</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>550.798971477663</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>403.9090239797526</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>234.9092237180851</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>77.1608511506152</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R34" t="n">
-        <v>2549.002432452407</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S34" t="n">
-        <v>2334.714009270569</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T34" t="n">
-        <v>2107.405821939171</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U34" t="n">
-        <v>2022.963088632153</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V34" t="n">
-        <v>2022.963088632153</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W34" t="n">
-        <v>2022.963088632153</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X34" t="n">
-        <v>2022.963088632153</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y34" t="n">
-        <v>2022.963088632153</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>1546.944160717209</v>
       </c>
       <c r="C35" t="n">
-        <v>1177.981643776797</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="D35" t="n">
-        <v>1177.981643776797</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E35" t="n">
-        <v>792.1933911785532</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F35" t="n">
-        <v>381.2074863889456</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
         <v>53.94298182036445</v>
@@ -7017,22 +7017,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>368.8844281164668</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>773.5003462121387</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1297.64725977017</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1851.373795869721</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C37" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D37" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E37" t="n">
-        <v>2022.963088632153</v>
+        <v>580.2158906240411</v>
       </c>
       <c r="F37" t="n">
-        <v>2022.963088632153</v>
+        <v>433.3259431261307</v>
       </c>
       <c r="G37" t="n">
-        <v>2022.963088632153</v>
+        <v>264.3261428644631</v>
       </c>
       <c r="H37" t="n">
-        <v>2022.963088632153</v>
+        <v>106.5777702969933</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>2519.585513306029</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>2305.297090124192</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>2077.988902792793</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W37" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X37" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y37" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1491.915471247702</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C38" t="n">
-        <v>1122.952954307291</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D38" t="n">
-        <v>1122.952954307291</v>
+        <v>1583.321035406938</v>
       </c>
       <c r="E38" t="n">
-        <v>737.1647017090463</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F38" t="n">
-        <v>326.1787969194388</v>
+        <v>786.5468780190865</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>368.5830699172734</v>
       </c>
       <c r="H38" t="n">
         <v>53.94298182036445</v>
@@ -7172,13 +7172,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7196,28 +7196,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X38" t="n">
-        <v>2268.654643287636</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y38" t="n">
-        <v>1878.515311311824</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>368.8844281164668</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>773.5003462121387</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1297.64725977017</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1851.373795869721</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2291.509718890065</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2627.754532504894</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036445</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036445</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>138.6192801108056</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>138.6192801108056</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>138.6192801108056</v>
       </c>
       <c r="H40" t="n">
         <v>53.94298182036445</v>
@@ -7354,28 +7354,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>365.6939024587809</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T40" t="n">
-        <v>365.6939024587809</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U40" t="n">
-        <v>365.6939024587809</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V40" t="n">
-        <v>365.6939024587809</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W40" t="n">
-        <v>365.6939024587809</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="X40" t="n">
-        <v>137.7043515607636</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036445</v>
+        <v>286.5323736931987</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1422.14692331494</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C41" t="n">
-        <v>1422.14692331494</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D41" t="n">
-        <v>1422.14692331494</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E41" t="n">
-        <v>1036.358670716696</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F41" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
@@ -7433,28 +7433,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2198.886095354873</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>2198.886095354873</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W41" t="n">
-        <v>2198.886095354873</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X41" t="n">
-        <v>2198.886095354873</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y41" t="n">
-        <v>1808.746763379062</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G42" t="n">
         <v>221.4284102424003</v>
@@ -7485,16 +7485,16 @@
         <v>115.9856282673422</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036422</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.200144220494</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
         <v>1194.968834417902</v>
@@ -7527,10 +7527,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7600,16 +7600,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U43" t="n">
-        <v>2471.7452186737</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V43" t="n">
-        <v>2471.7452186737</v>
+        <v>2442.464602812336</v>
       </c>
       <c r="W43" t="n">
-        <v>2471.7452186737</v>
+        <v>2153.047432775375</v>
       </c>
       <c r="X43" t="n">
-        <v>2243.755667775683</v>
+        <v>2153.047432775375</v>
       </c>
       <c r="Y43" t="n">
         <v>2022.963088632153</v>
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1637.643464250441</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C44" t="n">
         <v>1268.68094731003</v>
@@ -7637,37 +7637,37 @@
         <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
         <v>2642.120401548716</v>
@@ -7688,10 +7688,10 @@
         <v>2642.120401548716</v>
       </c>
       <c r="X44" t="n">
-        <v>2414.382636290375</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y44" t="n">
-        <v>2024.243304314563</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="45">
@@ -7701,40 +7701,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
         <v>1748.695370517453</v>
@@ -7770,7 +7770,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="46">
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7813,43 +7813,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S46" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T46" t="n">
-        <v>343.1165921657965</v>
+        <v>598.044640063212</v>
       </c>
       <c r="U46" t="n">
-        <v>53.94298182036445</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V46" t="n">
-        <v>53.94298182036445</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8708,7 +8708,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22556,16 +22556,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>219.4114360937592</v>
       </c>
       <c r="I2" t="n">
-        <v>132.2758992500981</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,10 +22604,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22711,13 +22711,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890124</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>82.85718120047548</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22726,7 +22726,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22781,25 +22781,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>19.7626682467681</v>
       </c>
       <c r="H5" t="n">
-        <v>44.28427355647227</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -22829,7 +22829,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -22945,16 +22945,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>128.2883697226011</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>86.05160619575661</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -22963,7 +22963,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22987,7 +22987,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -23018,13 +23018,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23033,10 +23033,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>69.42772111999375</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -23066,13 +23066,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>51.8241145859478</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -23081,10 +23081,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23182,25 +23182,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>86.05160619575689</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,22 +23221,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>96.01048066168073</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,13 +23303,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>52.55328306226772</v>
       </c>
       <c r="U11" t="n">
         <v>251.2241675082893</v>
@@ -23321,10 +23321,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23419,10 +23419,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>75.30176537689267</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>128.0571403890128</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,13 +23431,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,10 +23458,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>144.2707130727115</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23558,7 +23558,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>30.69118209778748</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,10 +23656,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>86.05160619575653</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>84.10132515770202</v>
       </c>
       <c r="J16" t="n">
         <v>45.19995918853699</v>
@@ -23698,7 +23698,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>264.2080233068713</v>
+        <v>318.686425881683</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23777,7 +23777,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23908,10 +23908,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,28 +23932,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>69.82361682150315</v>
       </c>
       <c r="U19" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23969,22 +23969,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24014,28 +24014,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>189.4187966945055</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>205.7785838475422</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,16 +24139,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>29.68712721493367</v>
+        <v>106.8644646478152</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,16 +24169,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
@@ -24209,22 +24209,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>89.47286298685884</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24269,7 +24269,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>141.6451653636188</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>51.04847948014742</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24382,10 +24382,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,7 +24406,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
@@ -24421,16 +24421,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24446,16 +24446,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>318.686425881683</v>
+        <v>59.38830759683424</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24491,7 +24491,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
         <v>216.4483203576578</v>
@@ -24503,7 +24503,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24619,10 +24619,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,7 +24643,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
@@ -24652,22 +24652,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>62.69861478456104</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24680,10 +24680,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24692,7 +24692,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>89.79231049789962</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24725,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24740,7 +24740,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>14.65925904419294</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24856,10 +24856,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,7 +24880,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
@@ -24889,13 +24889,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>96.0104806616813</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>96.01048066168093</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -25081,22 +25081,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923383</v>
+        <v>111.97993115539</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,19 +25117,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>202.6835682680295</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25154,10 +25154,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>79.2024603475752</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25199,7 +25199,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25318,22 +25318,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923383</v>
+        <v>82.85718120047571</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,19 +25354,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>231.8063182229436</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25394,7 +25394,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25403,10 +25403,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>144.2707130727114</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>12.42908554841733</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25454,10 +25454,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25555,7 +25555,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,13 +25564,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>72.34135353425846</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,16 +25591,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
@@ -25612,10 +25612,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>135.6608973090997</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25628,10 +25628,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,13 +25640,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,16 +25673,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>203.2862375430149</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25691,7 +25691,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>30.69118209778748</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25804,10 +25804,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,7 +25828,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25840,19 +25840,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>63.1320406209006</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>89.80115265030491</v>
       </c>
     </row>
     <row r="44">
@@ -25865,7 +25865,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>144.2707130727111</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25928,7 +25928,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>144.2707130727115</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26041,10 +26041,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,25 +26065,25 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>56.01837628787186</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>96.25160475629417</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>708423.8945386064</v>
+        <v>708423.8945386065</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>708423.8945386064</v>
+        <v>708423.8945386065</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>708423.8945386063</v>
+        <v>708423.8945386064</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>708423.8945386063</v>
+        <v>708423.8945386064</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>708423.8945386063</v>
+        <v>708423.8945386064</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>708423.8945386064</v>
+        <v>708423.8945386065</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>708423.8945386065</v>
+        <v>708423.8945386064</v>
       </c>
     </row>
     <row r="16">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>303610.2405165457</v>
+        <v>303610.2405165455</v>
       </c>
       <c r="C2" t="n">
         <v>303610.2405165455</v>
       </c>
       <c r="D2" t="n">
+        <v>303610.2405165456</v>
+      </c>
+      <c r="E2" t="n">
+        <v>303610.2405165454</v>
+      </c>
+      <c r="F2" t="n">
         <v>303610.2405165455</v>
       </c>
-      <c r="E2" t="n">
-        <v>303610.2405165453</v>
-      </c>
-      <c r="F2" t="n">
-        <v>303610.2405165454</v>
-      </c>
       <c r="G2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165455</v>
       </c>
       <c r="H2" t="n">
-        <v>303610.2405165457</v>
+        <v>303610.2405165455</v>
       </c>
       <c r="I2" t="n">
         <v>303610.2405165454</v>
@@ -26341,19 +26341,19 @@
         <v>303610.2405165454</v>
       </c>
       <c r="L2" t="n">
-        <v>303610.2405165455</v>
+        <v>303610.2405165454</v>
       </c>
       <c r="M2" t="n">
         <v>303610.2405165453</v>
       </c>
       <c r="N2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165453</v>
       </c>
       <c r="O2" t="n">
         <v>303610.2405165453</v>
       </c>
       <c r="P2" t="n">
-        <v>303610.2405165455</v>
+        <v>303610.2405165457</v>
       </c>
     </row>
     <row r="3">
@@ -26427,7 +26427,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="F4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="G4" t="n">
         <v>513.1084990597035</v>
@@ -26448,7 +26448,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="M4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="N4" t="n">
         <v>513.1084990597035</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26509,7 +26509,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
     </row>
     <row r="6">
@@ -26525,19 +26525,19 @@
         <v>220238.0539540763</v>
       </c>
       <c r="D6" t="n">
-        <v>220238.0539540763</v>
+        <v>220238.0539540765</v>
       </c>
       <c r="E6" t="n">
-        <v>253865.6539540762</v>
+        <v>253865.6539540763</v>
       </c>
       <c r="F6" t="n">
         <v>253865.6539540763</v>
       </c>
       <c r="G6" t="n">
-        <v>253865.6539540762</v>
+        <v>253865.6539540763</v>
       </c>
       <c r="H6" t="n">
-        <v>253865.6539540765</v>
+        <v>253865.6539540764</v>
       </c>
       <c r="I6" t="n">
         <v>253865.6539540762</v>
@@ -26549,19 +26549,19 @@
         <v>253865.6539540762</v>
       </c>
       <c r="L6" t="n">
-        <v>253865.6539540763</v>
+        <v>253865.6539540762</v>
       </c>
       <c r="M6" t="n">
-        <v>253865.6539540762</v>
+        <v>253865.6539540761</v>
       </c>
       <c r="N6" t="n">
-        <v>253865.6539540762</v>
+        <v>253865.6539540761</v>
       </c>
       <c r="O6" t="n">
         <v>253865.6539540762</v>
       </c>
       <c r="P6" t="n">
-        <v>253865.6539540763</v>
+        <v>253865.6539540765</v>
       </c>
     </row>
   </sheetData>
@@ -26741,19 +26741,19 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26829,7 +26829,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31130,10 +31130,10 @@
         <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423925</v>
       </c>
       <c r="L3" t="n">
-        <v>56.98116194942338</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
         <v>205.8702969983122</v>
@@ -31367,7 +31367,7 @@
         <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423925</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>139.4326257134866</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31829,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31856,22 +31856,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
-        <v>60.29709682323551</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31908,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31932,22 +31932,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -32017,7 +32017,7 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044134</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
         <v>95.39071536633799</v>
@@ -32078,7 +32078,7 @@
         <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
-        <v>11.76595806653236</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
         <v>176.4169820478007</v>
@@ -32093,10 +32093,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>139.4326257134861</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>50.44659727034983</v>
@@ -32224,46 +32224,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,16 +32303,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32330,22 +32330,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
-        <v>60.29709682323596</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32382,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32406,22 +32406,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32461,46 +32461,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727431</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32540,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32567,22 +32567,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>35.71704454958058</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,19 +32619,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32643,22 +32643,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32698,13 +32698,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32722,22 +32722,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32777,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32795,7 +32795,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M24" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993508</v>
       </c>
       <c r="N24" t="n">
         <v>211.31907117367</v>
@@ -32804,22 +32804,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>139.432625713487</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,19 +32856,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32880,13 +32880,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32895,7 +32895,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32935,13 +32935,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32959,22 +32959,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,25 +33014,25 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
-        <v>11.76595806653305</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L27" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M27" t="n">
-        <v>205.8702969983122</v>
+        <v>190.1500580638411</v>
       </c>
       <c r="N27" t="n">
         <v>211.31907117367</v>
@@ -33044,19 +33044,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,19 +33093,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33117,13 +33117,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33132,7 +33132,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K29" t="n">
         <v>193.1674799081577</v>
@@ -33196,22 +33196,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,22 +33251,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L30" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942361</v>
       </c>
       <c r="M30" t="n">
         <v>205.8702969983122</v>
@@ -33284,16 +33284,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,19 +33330,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33354,13 +33354,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33369,7 +33369,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33409,13 +33409,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33424,7 +33424,7 @@
         <v>193.1674799081577</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M32" t="n">
         <v>266.6471645405367</v>
@@ -33433,22 +33433,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33488,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33506,7 +33506,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M33" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993462</v>
       </c>
       <c r="N33" t="n">
         <v>211.31907117367</v>
@@ -33515,22 +33515,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>111.7343803072874</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,19 +33567,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33591,13 +33591,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33606,7 +33606,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33646,13 +33646,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33670,22 +33670,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,19 +33725,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
-        <v>131.2017781649102</v>
+        <v>115.4815392304395</v>
       </c>
       <c r="L36" t="n">
         <v>176.4169820478007</v>
@@ -33755,19 +33755,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33804,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33828,13 +33828,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33843,7 +33843,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33883,13 +33883,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33907,22 +33907,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,19 +33962,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
-        <v>115.4815392304395</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L39" t="n">
         <v>176.4169820478007</v>
@@ -33992,19 +33992,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,19 +34041,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34065,13 +34065,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34080,7 +34080,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34120,13 +34120,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34144,22 +34144,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,25 +34199,25 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L42" t="n">
-        <v>56.98116194942338</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M42" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993462</v>
       </c>
       <c r="N42" t="n">
         <v>211.31907117367</v>
@@ -34232,16 +34232,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34278,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34302,13 +34302,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34317,7 +34317,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34357,13 +34357,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34381,22 +34381,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,19 +34436,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396475</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423996</v>
       </c>
       <c r="L45" t="n">
         <v>176.4169820478007</v>
@@ -34457,7 +34457,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N45" t="n">
-        <v>167.9005868329995</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O45" t="n">
         <v>193.3156655923047</v>
@@ -34469,16 +34469,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34515,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34539,13 +34539,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34554,7 +34554,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>323.9209869390935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181306</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35498,16 +35498,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35583,7 +35583,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K15" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35741,10 +35741,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>323.920986939093</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,25 +35881,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35972,16 +35972,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36057,7 +36057,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,25 +36118,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36209,13 +36209,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>220.2054057751875</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q21" t="n">
         <v>173.8110948137341</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36294,7 +36294,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36370,10 +36370,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36443,19 +36443,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N24" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>323.920986939094</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36531,7 +36531,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36607,10 +36607,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
-        <v>529.4413268262938</v>
+        <v>513.7210878918227</v>
       </c>
       <c r="N27" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36768,7 +36768,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K29" t="n">
         <v>297.2230414343419</v>
@@ -36844,10 +36844,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M30" t="n">
         <v>529.4413268262938</v>
@@ -36923,13 +36923,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37005,7 +37005,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
         <v>485.8144648060965</v>
@@ -37081,10 +37081,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37154,16 +37154,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N33" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
         <v>173.8110948137341</v>
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37242,7 +37242,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37318,10 +37318,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
         <v>153.997506289869</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>242.1053372686591</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37397,13 +37397,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535667</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37479,7 +37479,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
         <v>297.2230414343419</v>
@@ -37555,13 +37555,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>242.1053372686591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37634,13 +37634,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37716,7 +37716,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37792,10 +37792,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N42" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37953,7 +37953,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38029,10 +38029,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38105,10 +38105,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38190,7 +38190,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
